--- a/data/trans_dic/P16B10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,57%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>94,41; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>98,33; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>98,16; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>91,16; 99,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>98,59; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>96,1; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>94,91; 99,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>99,23; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>97,85; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>89,49; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>97,69; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>82,13; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>91,81; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>97,1; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>98,44; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>65,82; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>80,1; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>95,86; 99,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>98,84; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>99,05; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>91,87; 98,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>98,79; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>96,68; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>95,56; 98,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>99,41; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>98,06; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B10-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,41; 100,0</t>
+          <t>94,37; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,16; 99,13</t>
+          <t>92,5; 99,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,1; 100,0</t>
+          <t>96,07; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,91; 99,14</t>
+          <t>94,62; 99,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>97,85; 100,0</t>
+          <t>98,01; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,49; 100,0</t>
+          <t>89,57; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,13; 100,0</t>
+          <t>76,84; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,81; 100,0</t>
+          <t>91,0; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -930,7 +931,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,82; 100,0</t>
+          <t>67,75; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,1; 100,0</t>
+          <t>82,55; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,86; 99,56</t>
+          <t>96,07; 99,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,87; 98,72</t>
+          <t>92,95; 98,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,68; 100,0</t>
+          <t>96,17; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,99</t>
+          <t>95,59; 98,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,06; 100,0</t>
+          <t>98,14; 100,0</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el corazón fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>123791</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125275</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>96353</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>131778</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>143793</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>122161</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>255569</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>269068</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>218514</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>118679; 125754</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>123187; 125275</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94577; 96353</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>126062; 135100</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141765; 143793</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>118275; 123115</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>247947; 259629</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>267003; 269068</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>215104; 219468</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37690</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46232</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>86857</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23038</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23344</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45781</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>60728</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69576</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>132638</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34453; 38467</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44268; 46232</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>84852; 86857</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18368; 23905</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21327; 23344</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43648; 45781</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>56761; 62372</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>67558; 69576</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>130570; 132638</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17198</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6132</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13694</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17468</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9330</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30891</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9400; 11336</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5461; 7115</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15163; 17198</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4512; 6132</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>954; 2215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10011; 14777</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15521; 17468</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7582; 9330</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26393; 31974</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>172817</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>178622</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>200408</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>160949</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>169352</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>181636</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>333765</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>347974</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>382043</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>168664; 174792</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>176558; 178622</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>198495; 200408</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>154600; 164461</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>167309; 169352</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>176640; 183673</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>326786; 338266</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>345912; 347974</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>376922; 384080</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>